--- a/database/app_protocol.xlsx
+++ b/database/app_protocol.xlsx
@@ -1793,8 +1793,8 @@
   </sheetPr>
   <dimension ref="A1:B560"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A299" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C223" activeCellId="0" sqref="C223:D223"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A524" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K542" activeCellId="0" sqref="K542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6105,7 +6105,7 @@
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="n">
-        <v>353</v>
+        <v>614</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>535</v>
@@ -6113,7 +6113,7 @@
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="n">
-        <v>354</v>
+        <v>615</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>536</v>
@@ -6121,7 +6121,7 @@
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="n">
-        <v>355</v>
+        <v>616</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>537</v>
@@ -6129,7 +6129,7 @@
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="n">
-        <v>356</v>
+        <v>617</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>538</v>
@@ -6137,7 +6137,7 @@
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="n">
-        <v>357</v>
+        <v>618</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>539</v>
@@ -6145,7 +6145,7 @@
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="n">
-        <v>358</v>
+        <v>619</v>
       </c>
       <c r="B544" s="1" t="s">
         <v>540</v>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="n">
-        <v>359</v>
+        <v>620</v>
       </c>
       <c r="B545" s="1" t="s">
         <v>541</v>
@@ -6161,7 +6161,7 @@
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="n">
-        <v>360</v>
+        <v>621</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>542</v>
@@ -6169,7 +6169,7 @@
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="n">
-        <v>361</v>
+        <v>622</v>
       </c>
       <c r="B547" s="1" t="s">
         <v>543</v>
@@ -6177,7 +6177,7 @@
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="n">
-        <v>362</v>
+        <v>623</v>
       </c>
       <c r="B548" s="1" t="s">
         <v>544</v>
@@ -6185,7 +6185,7 @@
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="n">
-        <v>363</v>
+        <v>624</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>545</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="n">
-        <v>364</v>
+        <v>625</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>546</v>
@@ -6201,7 +6201,7 @@
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="n">
-        <v>365</v>
+        <v>626</v>
       </c>
       <c r="B551" s="1" t="s">
         <v>547</v>
@@ -6209,7 +6209,7 @@
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="n">
-        <v>366</v>
+        <v>627</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>548</v>
@@ -6217,7 +6217,7 @@
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="n">
-        <v>367</v>
+        <v>628</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>549</v>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="n">
-        <v>368</v>
+        <v>629</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>550</v>
@@ -6233,7 +6233,7 @@
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="n">
-        <v>369</v>
+        <v>630</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>551</v>
@@ -6241,7 +6241,7 @@
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="n">
-        <v>370</v>
+        <v>631</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>552</v>
@@ -6249,7 +6249,7 @@
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="n">
-        <v>371</v>
+        <v>632</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>553</v>
@@ -6257,7 +6257,7 @@
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="n">
-        <v>372</v>
+        <v>633</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>554</v>
@@ -6265,7 +6265,7 @@
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="n">
-        <v>373</v>
+        <v>634</v>
       </c>
       <c r="B559" s="1" t="s">
         <v>555</v>
@@ -6273,7 +6273,7 @@
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="n">
-        <v>374</v>
+        <v>635</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>556</v>
